--- a/data/flights_per_aircraft_type.xlsx
+++ b/data/flights_per_aircraft_type.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyven\dev\repos\standard_inputs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02F18253-067A-47C2-A6BF-F97F9835FFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8CEC38-4621-4DDC-9FE0-5C22C2896956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flights_per_aircraft_type" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,16 +107,16 @@
     <t>Cumulative</t>
   </si>
   <si>
-    <t>FPL Aircraft Type</t>
-  </si>
-  <si>
     <t>Flights</t>
+  </si>
+  <si>
+    <t>Aircraft Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -937,11 +950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,10 +966,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>

--- a/data/flights_per_aircraft_type.xlsx
+++ b/data/flights_per_aircraft_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8CEC38-4621-4DDC-9FE0-5C22C2896956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97BC269-D124-4F51-97C9-883DCD7BBE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flights_per_aircraft_type" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,9 @@
     <t>B38M</t>
   </si>
   <si>
-    <t>B734</t>
-  </si>
-  <si>
-    <t>B737</t>
-  </si>
-  <si>
     <t>B738</t>
   </si>
   <si>
-    <t>B77L</t>
-  </si>
-  <si>
     <t>B77W</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>CRJ9</t>
   </si>
   <si>
-    <t>DH8A</t>
-  </si>
-  <si>
     <t>DH8D</t>
   </si>
   <si>
@@ -111,6 +99,18 @@
   </si>
   <si>
     <t>Aircraft Type</t>
+  </si>
+  <si>
+    <t>BCS3</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>B788</t>
+  </si>
+  <si>
+    <t>A359</t>
   </si>
 </sst>
 </file>
@@ -655,9 +655,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -695,7 +695,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -801,7 +801,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -943,7 +943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,7 +954,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,30 +966,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1098879</v>
+        <v>1717381</v>
       </c>
       <c r="C2">
-        <v>0.19108443401566161</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.19108443401566161</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,13 +997,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>760204</v>
+        <v>1417930</v>
       </c>
       <c r="C3">
-        <v>0.13219212586321336</v>
+        <v>0.16</v>
       </c>
       <c r="D3">
-        <v>0.32327655987887494</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +1011,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>312864</v>
+        <v>513699</v>
       </c>
       <c r="C4">
-        <v>5.4404024796065764E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D4">
-        <v>0.3776805846749407</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>310527</v>
+        <v>462294</v>
       </c>
       <c r="C5">
-        <v>5.3997643090441576E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
-        <v>0.43167822776538228</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>193590</v>
+        <v>371456</v>
       </c>
       <c r="C6">
-        <v>3.366342935035789E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D6">
-        <v>0.46534165711574016</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,83 +1053,83 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>150955</v>
+        <v>296722</v>
       </c>
       <c r="C7">
-        <v>2.6249615050277782E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D7">
-        <v>0.49159127216601795</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>132040</v>
+        <v>270614</v>
       </c>
       <c r="C8">
-        <v>2.296047942260063E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D8">
-        <v>0.51455175158861854</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>131891</v>
+        <v>210778</v>
       </c>
       <c r="C9">
-        <v>2.2934569763149195E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D9">
-        <v>0.53748632135176777</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>109491</v>
+        <v>210022</v>
       </c>
       <c r="C10">
-        <v>1.9039426328839485E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D10">
-        <v>0.55652574768060725</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>98893</v>
+        <v>163600</v>
       </c>
       <c r="C11">
-        <v>1.7196536591481702E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>0.57372228427208893</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>85711</v>
+        <v>135989</v>
       </c>
       <c r="C12">
-        <v>1.4904314236523195E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
-        <v>0.5886265985086121</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,136 +1137,136 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>82982</v>
+        <v>128892</v>
       </c>
       <c r="C13">
-        <v>1.4429767520798588E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <v>0.60305636602941071</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>81496</v>
+        <v>124823</v>
       </c>
       <c r="C14">
-        <v>1.4171366487611792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
-        <v>0.61722773251702245</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>76625</v>
+        <v>112652</v>
       </c>
       <c r="C15">
-        <v>1.3324346680981319E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D15">
-        <v>0.63055207919800382</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>76322</v>
+        <v>100619</v>
       </c>
       <c r="C16">
-        <v>1.3271657910419005E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D16">
-        <v>0.64382373710842278</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>65577</v>
+        <v>93110</v>
       </c>
       <c r="C17">
-        <v>1.1403206294273565E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D17">
-        <v>0.65522694340269638</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>63990</v>
+        <v>90613</v>
       </c>
       <c r="C18">
-        <v>1.1127242337565998E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D18">
-        <v>0.66635418574026239</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>63696</v>
+        <v>86165</v>
       </c>
       <c r="C19">
-        <v>1.1076118579990683E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D19">
-        <v>0.67743030432025308</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>62673</v>
+        <v>80654</v>
       </c>
       <c r="C20">
-        <v>1.0898228770468414E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D20">
-        <v>0.68832853309072151</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>62082</v>
+        <v>78200</v>
       </c>
       <c r="C21">
-        <v>1.0795459584322117E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D21">
-        <v>0.69912399267504366</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>1730263</v>
+        <v>2073792</v>
       </c>
       <c r="C22">
-        <v>0.30087600732495634</v>
+        <v>0.24</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1274,11 +1274,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <f>SUM(B2:B22)</f>
-        <v>5750751</v>
+        <v>8740005</v>
       </c>
       <c r="C23">
         <v>1</v>

--- a/data/flights_per_aircraft_type.xlsx
+++ b/data/flights_per_aircraft_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97BC269-D124-4F51-97C9-883DCD7BBE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445A3C2-D660-4142-A370-48B137E0D3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flights_per_aircraft_type" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/flights_per_aircraft_type.xlsx
+++ b/data/flights_per_aircraft_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8CEC38-4621-4DDC-9FE0-5C22C2896956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445A3C2-D660-4142-A370-48B137E0D3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flights_per_aircraft_type" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,9 @@
     <t>B38M</t>
   </si>
   <si>
-    <t>B734</t>
-  </si>
-  <si>
-    <t>B737</t>
-  </si>
-  <si>
     <t>B738</t>
   </si>
   <si>
-    <t>B77L</t>
-  </si>
-  <si>
     <t>B77W</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>CRJ9</t>
   </si>
   <si>
-    <t>DH8A</t>
-  </si>
-  <si>
     <t>DH8D</t>
   </si>
   <si>
@@ -111,6 +99,18 @@
   </si>
   <si>
     <t>Aircraft Type</t>
+  </si>
+  <si>
+    <t>BCS3</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>B788</t>
+  </si>
+  <si>
+    <t>A359</t>
   </si>
 </sst>
 </file>
@@ -655,9 +655,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -695,7 +695,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -801,7 +801,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -943,7 +943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,7 +954,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,30 +966,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1098879</v>
+        <v>1717381</v>
       </c>
       <c r="C2">
-        <v>0.19108443401566161</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.19108443401566161</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,13 +997,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>760204</v>
+        <v>1417930</v>
       </c>
       <c r="C3">
-        <v>0.13219212586321336</v>
+        <v>0.16</v>
       </c>
       <c r="D3">
-        <v>0.32327655987887494</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +1011,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>312864</v>
+        <v>513699</v>
       </c>
       <c r="C4">
-        <v>5.4404024796065764E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D4">
-        <v>0.3776805846749407</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>310527</v>
+        <v>462294</v>
       </c>
       <c r="C5">
-        <v>5.3997643090441576E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
-        <v>0.43167822776538228</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>193590</v>
+        <v>371456</v>
       </c>
       <c r="C6">
-        <v>3.366342935035789E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D6">
-        <v>0.46534165711574016</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,83 +1053,83 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>150955</v>
+        <v>296722</v>
       </c>
       <c r="C7">
-        <v>2.6249615050277782E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D7">
-        <v>0.49159127216601795</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>132040</v>
+        <v>270614</v>
       </c>
       <c r="C8">
-        <v>2.296047942260063E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D8">
-        <v>0.51455175158861854</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>131891</v>
+        <v>210778</v>
       </c>
       <c r="C9">
-        <v>2.2934569763149195E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D9">
-        <v>0.53748632135176777</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>109491</v>
+        <v>210022</v>
       </c>
       <c r="C10">
-        <v>1.9039426328839485E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D10">
-        <v>0.55652574768060725</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>98893</v>
+        <v>163600</v>
       </c>
       <c r="C11">
-        <v>1.7196536591481702E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>0.57372228427208893</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>85711</v>
+        <v>135989</v>
       </c>
       <c r="C12">
-        <v>1.4904314236523195E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
-        <v>0.5886265985086121</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,136 +1137,136 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>82982</v>
+        <v>128892</v>
       </c>
       <c r="C13">
-        <v>1.4429767520798588E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <v>0.60305636602941071</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>81496</v>
+        <v>124823</v>
       </c>
       <c r="C14">
-        <v>1.4171366487611792E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
-        <v>0.61722773251702245</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>76625</v>
+        <v>112652</v>
       </c>
       <c r="C15">
-        <v>1.3324346680981319E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D15">
-        <v>0.63055207919800382</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>76322</v>
+        <v>100619</v>
       </c>
       <c r="C16">
-        <v>1.3271657910419005E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D16">
-        <v>0.64382373710842278</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>65577</v>
+        <v>93110</v>
       </c>
       <c r="C17">
-        <v>1.1403206294273565E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D17">
-        <v>0.65522694340269638</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>63990</v>
+        <v>90613</v>
       </c>
       <c r="C18">
-        <v>1.1127242337565998E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D18">
-        <v>0.66635418574026239</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>63696</v>
+        <v>86165</v>
       </c>
       <c r="C19">
-        <v>1.1076118579990683E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D19">
-        <v>0.67743030432025308</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>62673</v>
+        <v>80654</v>
       </c>
       <c r="C20">
-        <v>1.0898228770468414E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D20">
-        <v>0.68832853309072151</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>62082</v>
+        <v>78200</v>
       </c>
       <c r="C21">
-        <v>1.0795459584322117E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D21">
-        <v>0.69912399267504366</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>1730263</v>
+        <v>2073792</v>
       </c>
       <c r="C22">
-        <v>0.30087600732495634</v>
+        <v>0.24</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1274,11 +1274,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <f>SUM(B2:B22)</f>
-        <v>5750751</v>
+        <v>8740005</v>
       </c>
       <c r="C23">
         <v>1</v>
